--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B44"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -608,164 +608,6 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>E mini Dow</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>129,465</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>127,409</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>E mini Russel 2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>243,187</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>262,322</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2460" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="2990" windowWidth="14400" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,24 +25,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD3535"/>
-        <bgColor rgb="FFCC0F0F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00fd3535"/>
-        <bgColor rgb="00cc0f0f"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,10 +45,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -438,174 +424,1953 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="32.7109375" customWidth="1" min="1" max="1"/>
-    <col width="14.85546875" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 Futures</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Currencies</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Energies</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Equities</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Grains</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Meats</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Metals</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Softs</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
+          <t>Euro FX</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Crude Oil</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>S&amp;P 500 Futures</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>30-Year U.S Treasury Bond Futures</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Corn</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Live Cattle</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Random Length Lumber</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Total:</t>
+          <t>Monat:</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,585,049</t>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1,994</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>142,541</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>435,986</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>255</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Monat:</t>
+          <t>FEB 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>329,078</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2,151,049</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>354,349</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>101,262</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>20,002</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>226</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total:</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,667,872</t>
+          <t>170,296</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>103,262</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1,334</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>25,812</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>APR 2022</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>7,889</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>167,777</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
+          <t>Swiss Franc</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>RBOB Gasoline</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>E Mini Nasdq 100</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>10-Year T-Note Futures</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Chicago SRW Wheat</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Feeder Cattle</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Cotton No-2 Futures</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total:</t>
+          <t>Monat:</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>598</t>
-        </is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21,071</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51,498</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>143,255</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3,297</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>50,771</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>4,540</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Mar22</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>10174</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>E Mini Nasdq 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51,320</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>789,654</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1,461,169</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>12,813</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>4,620</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1,114</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>May22</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23,147</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>11,511</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>APR 2022</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1,194</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jul22</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>941</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>395,288</t>
+          <t>British-Pound</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NY Harbor ULSD</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>E mini Dow</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Oats</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Lean Hogs</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Cocoa Futures</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Monat:</t>
+          <t>JAN 2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
-        </is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46,592</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>36,899</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>22,220</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Mar22</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>14684</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total:</t>
+          <t>FEB 2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>415,881</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+          <t>1,169</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35,216</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>213,698</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>11,457</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>May22</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>144,520</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17,655</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>APR 2022</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>3,380</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>APR 2022</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>5,583</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jul22</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>4321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+          <t>Australian Dollar</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NY Harbor ULSD (HO)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>E mini Russel 2000</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Rough Rice</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Palladium</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Sugar No. 11 Futures</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>46,592</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>56,533</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1,324</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Mar22</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>28261</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35,216</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>291,041</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1,418</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>May22</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>11251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>99,586</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>17,655</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jul22</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>10388</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>New Zeland Dollar</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Henry Hub Natural Gas</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Soybean</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Copper</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Coffee C Futures</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>26,442</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>122,851</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>115,189</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dec21</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>42,232</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>92,487</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mar22</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>9491</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DEC 2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>40,758</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>22,787</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>May22</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Canadian Dollar</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Soybean Oil</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>FCOJ-A Futures</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jan22</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1,163</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>40,464</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mar22</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>85,002</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>49,686</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>May22</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Japanese Jen</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Soybean Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>34,328</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>33,453</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>89,570</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>11,752</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mexican Peso</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>53,032</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Us-Dollar Index TheIce</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mar22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10109</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jun22</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sep22</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="W12" s="5" t="n">
-        <v>12171</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="W13" s="5" t="n">
-        <v>3269</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="W14" s="7" t="n">
-        <v>1410</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1"/>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="W18" s="5" t="n">
-        <v>14944</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="19">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="W19" s="5" t="n">
-        <v>7032</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" thickBot="1">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="W20" s="7" t="n">
-        <v>4381</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" thickBot="1"/>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="W24" s="5" t="n">
-        <v>28261</v>
+        <v>15128</v>
       </c>
     </row>
     <row r="25">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="W25" s="5" t="n">
-        <v>11251</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="W26" s="7" t="n">
-        <v>10388</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" thickBot="1"/>
@@ -2078,11 +2078,11 @@
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Dec21</t>
+          <t>Mar22</t>
         </is>
       </c>
       <c r="W30" s="5" t="n">
-        <v>10</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="31">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Mar22</t>
+          <t>May22</t>
         </is>
       </c>
       <c r="W31" s="5" t="n">
-        <v>9700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -2178,11 +2178,11 @@
       </c>
       <c r="V32" s="6" t="inlineStr">
         <is>
-          <t>May22</t>
+          <t>Jul22</t>
         </is>
       </c>
       <c r="W32" s="7" t="n">
-        <v>2932</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1"/>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="W36" s="5" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="W37" s="5" t="n">
-        <v>1031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="W38" s="7" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1"/>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>13484</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="55">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B55" s="5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" thickBot="1">

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="W12" s="5" t="n">
-        <v>2781</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="W13" s="5" t="n">
-        <v>591</v>
+        <v>764</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="W14" s="7" t="n">
-        <v>100</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1"/>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="W18" s="5" t="n">
-        <v>2139</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="19">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="W19" s="5" t="n">
-        <v>550</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" thickBot="1">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="W20" s="7" t="n">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" thickBot="1"/>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="W24" s="5" t="n">
-        <v>15128</v>
+        <v>16341</v>
       </c>
     </row>
     <row r="25">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="W25" s="5" t="n">
-        <v>3054</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="W26" s="7" t="n">
-        <v>1532</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" thickBot="1"/>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="W30" s="5" t="n">
-        <v>4975</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="31">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="W31" s="5" t="n">
-        <v>1697</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="W32" s="7" t="n">
-        <v>1043</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1"/>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="W36" s="5" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="W37" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="W38" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1"/>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>4001</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="55">

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="W12" s="5" t="n">
-        <v>3695</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="W13" s="5" t="n">
-        <v>764</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="W14" s="7" t="n">
-        <v>295</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1"/>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="W18" s="5" t="n">
-        <v>2798</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="19">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="W19" s="5" t="n">
-        <v>722</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" thickBot="1">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="W20" s="7" t="n">
-        <v>375</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" thickBot="1"/>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="W24" s="5" t="n">
-        <v>16341</v>
+        <v>19211</v>
       </c>
     </row>
     <row r="25">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="W25" s="5" t="n">
-        <v>3165</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="W26" s="7" t="n">
-        <v>1613</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" thickBot="1"/>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="W30" s="5" t="n">
-        <v>5666</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="31">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="W31" s="5" t="n">
-        <v>1954</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="W32" s="7" t="n">
-        <v>1241</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1"/>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="W36" s="5" t="n">
-        <v>56</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="W37" s="5" t="n">
-        <v>30</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="W38" s="7" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1"/>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>4093</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="55">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B55" s="5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" thickBot="1">

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -731,7 +731,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>1,318</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>78,125</t>
+          <t>36,727</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>34,916</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>328</t>
         </is>
       </c>
       <c r="M6" s="4" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
-          <t>129,569</t>
+          <t>106,042</t>
         </is>
       </c>
       <c r="P6" s="4" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>765</t>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>226</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>189</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>991</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>351,303</t>
+          <t>492,217</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>2,472,118</t>
+          <t>2,097,624</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>285,541</t>
+          <t>320,827</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>31,590</t>
+          <t>32,195</t>
         </is>
       </c>
       <c r="P7" s="4" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>18,785</t>
+          <t>20,294</t>
         </is>
       </c>
       <c r="S7" s="4" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>419</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>139,763</t>
+          <t>122,480</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>92,984</t>
+          <t>129,078</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>1,133</t>
+          <t>1,381</t>
         </is>
       </c>
       <c r="J8" s="6" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="K8" s="7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="N8" s="7" t="inlineStr">
         <is>
-          <t>23,838</t>
+          <t>20,538</t>
         </is>
       </c>
       <c r="P8" s="6" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>9,373</t>
+          <t>10,557</t>
         </is>
       </c>
       <c r="S8" s="6" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
-          <t>156,607</t>
+          <t>105,386</t>
         </is>
       </c>
       <c r="V8" s="6" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="W8" s="7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>17,154</t>
+          <t>14,222</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>53,453</t>
+          <t>43,218</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>9,391</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>1,109</t>
+          <t>1,598</t>
         </is>
       </c>
       <c r="M12" s="4" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>38,053</t>
+          <t>38,677</t>
         </is>
       </c>
       <c r="P12" s="4" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>4,596</t>
+          <t>3,054</t>
         </is>
       </c>
       <c r="S12" s="4" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>87</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="W12" s="5" t="n">
-        <v>3426</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="13">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>64,407</t>
+          <t>59,717</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>800,579</t>
+          <t>676,197</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>1,175,627</t>
+          <t>1,215,343</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>11,353</t>
+          <t>11,679</t>
         </is>
       </c>
       <c r="P13" s="4" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>6,690</t>
+          <t>4,059</t>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>755</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="W13" s="5" t="n">
-        <v>1185</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>27,290</t>
+          <t>27,404</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="H14" s="7" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>870</t>
         </is>
       </c>
       <c r="J14" s="6" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="K14" s="7" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>58</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N14" s="7" t="inlineStr">
         <is>
-          <t>7,227</t>
+          <t>7,373</t>
         </is>
       </c>
       <c r="P14" s="6" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>1,816</t>
+          <t>1,253</t>
         </is>
       </c>
       <c r="S14" s="6" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>21</t>
         </is>
       </c>
       <c r="V14" s="6" t="inlineStr">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="W14" s="7" t="n">
-        <v>383</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>44,048</t>
+          <t>47,739</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>2,113</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -1497,27 +1497,27 @@
       </c>
       <c r="N18" s="5" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>856</t>
         </is>
       </c>
       <c r="P18" s="4" t="inlineStr">
         <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>12,992</t>
+        </is>
+      </c>
+      <c r="S18" s="4" t="inlineStr">
+        <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="4" t="inlineStr">
-        <is>
-          <t>JAN 2022</t>
-        </is>
-      </c>
       <c r="T18" s="5" t="inlineStr">
         <is>
-          <t>15,361</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="W18" s="5" t="n">
-        <v>6185</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="19">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>41,226</t>
+          <t>50,444</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>271,461</t>
+          <t>220,121</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
@@ -1567,27 +1567,27 @@
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>15,348</t>
+          <t>5,131</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>JAN 2022</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18,484</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="W19" s="5" t="n">
-        <v>2640</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>86,291</t>
+          <t>81,993</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>17,324</t>
+          <t>21,256</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H20" s="7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>83</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1637,27 +1637,27 @@
       </c>
       <c r="N20" s="7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>41</t>
         </is>
       </c>
       <c r="P20" s="6" t="inlineStr">
         <is>
-          <t>APR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>7,144</t>
+          <t>22</t>
         </is>
       </c>
       <c r="S20" s="6" t="inlineStr">
         <is>
-          <t>APR 2022</t>
+          <t>FEB 2022</t>
         </is>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>3,485</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V20" s="6" t="inlineStr">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="W20" s="7" t="n">
-        <v>2039</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" thickBot="1"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>44,048</t>
+          <t>47,739</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>1,928</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="N24" s="5" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>499</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="W24" s="5" t="n">
-        <v>19211</v>
+        <v>28908</v>
       </c>
     </row>
     <row r="25">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>41,226</t>
+          <t>50,444</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>334,169</t>
+          <t>292,340</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="N25" s="5" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>548</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="W25" s="5" t="n">
-        <v>6191</v>
+        <v>10733</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>69,566</t>
+          <t>74,521</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>17,324</t>
+          <t>21,256</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="H26" s="7" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="M26" s="6" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="N26" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="S26" s="6" t="inlineStr">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="W26" s="7" t="n">
-        <v>5477</v>
+        <v>10178</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" thickBot="1"/>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>17,626</t>
+          <t>19,935</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>101,625</t>
+          <t>128,582</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
-          <t>122,742</t>
+          <t>83,928</t>
         </is>
       </c>
       <c r="S30" s="4" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="T30" s="5" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>490</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="W30" s="5" t="n">
-        <v>7158</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="31">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>36,913</t>
+          <t>61,251</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="N31" s="5" t="inlineStr">
         <is>
-          <t>103,739</t>
+          <t>70,137</t>
         </is>
       </c>
       <c r="S31" s="4" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="T31" s="5" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>438</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="W31" s="5" t="n">
-        <v>2586</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t>34,418</t>
+          <t>49,456</t>
         </is>
       </c>
       <c r="M32" s="6" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="N32" s="7" t="inlineStr">
         <is>
-          <t>25,929</t>
+          <t>22,449</t>
         </is>
       </c>
       <c r="S32" s="6" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>325</t>
         </is>
       </c>
       <c r="V32" s="6" t="inlineStr">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="W32" s="7" t="n">
-        <v>1345</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>142</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="N36" s="5" t="inlineStr">
         <is>
-          <t>30,107</t>
+          <t>27,642</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="W36" s="5" t="n">
-        <v>252</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>151</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="N37" s="5" t="inlineStr">
         <is>
-          <t>38,187</t>
+          <t>33,428</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="W37" s="5" t="n">
-        <v>339</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B38" s="7" t="inlineStr">
         <is>
-          <t>66,491</t>
+          <t>70,614</t>
         </is>
       </c>
       <c r="M38" s="6" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="N38" s="7" t="inlineStr">
         <is>
-          <t>14,930</t>
+          <t>9,765</t>
         </is>
       </c>
       <c r="V38" s="6" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="N42" s="5" t="inlineStr">
         <is>
-          <t>32,684</t>
+          <t>29,815</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1,855</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="N43" s="5" t="inlineStr">
         <is>
-          <t>31,857</t>
+          <t>35,529</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B44" s="7" t="inlineStr">
         <is>
-          <t>94,463</t>
+          <t>79,458</t>
         </is>
       </c>
       <c r="M44" s="6" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="N44" s="7" t="inlineStr">
         <is>
-          <t>9,608</t>
+          <t>10,976</t>
         </is>
       </c>
     </row>
@@ -2467,24 +2467,24 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36,547</t>
         </is>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>JUN 2022</t>
         </is>
       </c>
       <c r="B50" s="7" t="inlineStr">
         <is>
-          <t>35,304</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>7108</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="55">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B55" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" thickBot="1">

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -731,67 +731,67 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>1,318</t>
+          <t>590</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>317,628</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>1,322,362</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>349,493</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>146,023</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>DEC 2021</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>36,727</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>106,042</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
-      </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>765</t>
-        </is>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
-      </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>116</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -813,67 +813,67 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>112,228</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>37,391</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>492,217</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>2,097,624</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>320,827</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>MAY 2022</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>32,195</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>19,752</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>20,294</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>JAN 2022</t>
-        </is>
-      </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>168,305</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -895,37 +895,37 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>122,480</t>
+          <t>143,496</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>129,078</t>
+          <t>43,359</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
+          <t>SEP 2022</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>1,381</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
-        </is>
-      </c>
       <c r="K8" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="N8" s="7" t="inlineStr">
         <is>
-          <t>20,538</t>
+          <t>28,396</t>
         </is>
       </c>
       <c r="P8" s="6" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>10,557</t>
+          <t>13,323</t>
         </is>
       </c>
       <c r="S8" s="6" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
-          <t>105,386</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V8" s="6" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="W8" s="7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>14,222</t>
+          <t>21,619</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1120,27 +1120,27 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>43,218</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>DEC 2021</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>513,549</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>DEC 2021</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>1,598</t>
+          <t>1,428,084</t>
         </is>
       </c>
       <c r="M12" s="4" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>38,677</t>
+          <t>42,116</t>
         </is>
       </c>
       <c r="P12" s="4" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>3,054</t>
+          <t>926</t>
         </is>
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t>DEC 2021</t>
+          <t>JAN 2022</t>
         </is>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>31</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="W12" s="5" t="n">
-        <v>5696</v>
+        <v>8719</v>
       </c>
     </row>
     <row r="13">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -1200,27 +1200,27 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>59,717</t>
+          <t>50,467</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>JUN 2022</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>676,197</t>
+          <t>717</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>JUN 2022</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>1,215,343</t>
+          <t>41</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>11,679</t>
+          <t>9,052</t>
         </is>
       </c>
       <c r="P13" s="4" t="inlineStr">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>4,059</t>
+          <t>5,042</t>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>FEB 2022</t>
         </is>
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>346</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="W13" s="5" t="n">
-        <v>1794</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -1280,27 +1280,27 @@
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>27,404</t>
+          <t>27,309</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
+          <t>SEP 2022</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr">
-        <is>
-          <t>870</t>
-        </is>
-      </c>
-      <c r="J14" s="6" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
-        </is>
-      </c>
       <c r="K14" s="7" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N14" s="7" t="inlineStr">
         <is>
-          <t>7,373</t>
+          <t>9,109</t>
         </is>
       </c>
       <c r="P14" s="6" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>1,253</t>
+          <t>1,665</t>
         </is>
       </c>
       <c r="S14" s="6" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>46,323</t>
         </is>
       </c>
       <c r="V14" s="6" t="inlineStr">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="W14" s="7" t="n">
-        <v>642</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -1477,17 +1477,17 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>47,739</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>DEC 2021</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>158,894</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="N18" s="5" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>275</t>
         </is>
       </c>
       <c r="P18" s="4" t="inlineStr">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="Q18" s="5" t="inlineStr">
         <is>
-          <t>12,992</t>
+          <t>12,432</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>DEC 2021</t>
+          <t>JAN 2022</t>
         </is>
       </c>
       <c r="T18" s="5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>231</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="W18" s="5" t="n">
-        <v>10003</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="19">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>50,444</t>
+          <t>51,351</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>JUN 2022</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>220,121</t>
+          <t>40</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>5,131</t>
+          <t>6,628</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>FEB 2022</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t>18,484</t>
+          <t>21</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="W19" s="5" t="n">
-        <v>5003</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>81,993</t>
+          <t>68,537</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
@@ -1617,17 +1617,17 @@
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>21,256</t>
+          <t>24,133</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
-          <t>JUN 2022</t>
+          <t>SEP 2022</t>
         </is>
       </c>
       <c r="H20" s="7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="N20" s="7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P20" s="6" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>152</t>
         </is>
       </c>
       <c r="S20" s="6" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18,494</t>
         </is>
       </c>
       <c r="V20" s="6" t="inlineStr">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="W20" s="7" t="n">
-        <v>3190</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" thickBot="1"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1788,37 +1788,37 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>47,739</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>DEC 2021</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
+          <t>222,614</t>
+        </is>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>JAN 2022</t>
+        </is>
+      </c>
+      <c r="N24" s="5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>JAN 2022</t>
-        </is>
-      </c>
-      <c r="N24" s="5" t="inlineStr">
-        <is>
-          <t>499</t>
-        </is>
-      </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>DEC 2021</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T24" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,225</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="W24" s="5" t="n">
-        <v>28908</v>
+        <v>19027</v>
       </c>
     </row>
     <row r="25">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>50,444</t>
+          <t>51,351</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>JUN 2022</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>292,340</t>
+          <t>95</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
@@ -1868,17 +1868,17 @@
       </c>
       <c r="N25" s="5" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>584</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>JUN 2022</t>
         </is>
       </c>
       <c r="T25" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="W25" s="5" t="n">
-        <v>10733</v>
+        <v>6927</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>74,521</t>
+          <t>59,070</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>21,256</t>
+          <t>24,133</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
         <is>
-          <t>JUN 2022</t>
+          <t>SEP 2022</t>
         </is>
       </c>
       <c r="H26" s="7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M26" s="6" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="N26" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="S26" s="6" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>SEP 2022</t>
         </is>
       </c>
       <c r="T26" s="7" t="inlineStr">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="W26" s="7" t="n">
-        <v>10178</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" thickBot="1"/>
@@ -2043,37 +2043,37 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>19,935</t>
+          <t>15,411</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>99,069</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>128,582</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>3,434</t>
+        </is>
+      </c>
+      <c r="S30" s="4" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>83,928</t>
-        </is>
-      </c>
-      <c r="S30" s="4" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
-      </c>
       <c r="T30" s="5" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>544</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="W30" s="5" t="n">
-        <v>10605</v>
+        <v>9452</v>
       </c>
     </row>
     <row r="31">
@@ -2093,37 +2093,37 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>52,865</t>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N31" s="5" t="inlineStr">
+        <is>
+          <t>90,234</t>
+        </is>
+      </c>
+      <c r="S31" s="4" t="inlineStr">
+        <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>61,251</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N31" s="5" t="inlineStr">
-        <is>
-          <t>70,137</t>
-        </is>
-      </c>
-      <c r="S31" s="4" t="inlineStr">
-        <is>
-          <t>JAN 2022</t>
-        </is>
-      </c>
       <c r="T31" s="5" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>242</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="W31" s="5" t="n">
-        <v>4162</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t>49,456</t>
+          <t>33,114</t>
         </is>
       </c>
       <c r="M32" s="6" t="inlineStr">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="N32" s="7" t="inlineStr">
         <is>
-          <t>22,449</t>
+          <t>23,632</t>
         </is>
       </c>
       <c r="S32" s="6" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>38,420</t>
         </is>
       </c>
       <c r="V32" s="6" t="inlineStr">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="W32" s="7" t="n">
-        <v>1979</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>69</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="N36" s="5" t="inlineStr">
         <is>
-          <t>27,642</t>
+          <t>518</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="W36" s="5" t="n">
-        <v>303</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>744</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="N37" s="5" t="inlineStr">
         <is>
-          <t>33,428</t>
+          <t>34,226</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="W37" s="5" t="n">
-        <v>453</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B38" s="7" t="inlineStr">
         <is>
-          <t>70,614</t>
+          <t>50,466</t>
         </is>
       </c>
       <c r="M38" s="6" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="N38" s="7" t="inlineStr">
         <is>
-          <t>9,765</t>
+          <t>13,249</t>
         </is>
       </c>
       <c r="V38" s="6" t="inlineStr">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="W38" s="7" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1"/>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>27</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="N42" s="5" t="inlineStr">
         <is>
-          <t>29,815</t>
+          <t>587</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>1,855</t>
+          <t>324</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="N43" s="5" t="inlineStr">
         <is>
-          <t>35,529</t>
+          <t>58,814</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B44" s="7" t="inlineStr">
         <is>
-          <t>79,458</t>
+          <t>79,656</t>
         </is>
       </c>
       <c r="M44" s="6" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="N44" s="7" t="inlineStr">
         <is>
-          <t>10,976</t>
+          <t>20,266</t>
         </is>
       </c>
     </row>
@@ -2460,31 +2460,31 @@
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>FEB 2022</t>
         </is>
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
-          <t>36,547</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>JUN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B50" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31,843</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>8665</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="55">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B55" s="5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" thickBot="1">

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -726,104 +726,104 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>131,424</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>150,382</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>1,824,590</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>370,383</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>154,047</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>317,628</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>1,322,362</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>349,493</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>146,023</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>DEC 2021</t>
-        </is>
-      </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,829</t>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>FEB 2022</t>
         </is>
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>51</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>249</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>112,228</t>
+          <t>566,355</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>4,718</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>62,177</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -853,119 +853,119 @@
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>37,391</t>
+          <t>138,413</t>
         </is>
       </c>
       <c r="P7" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>19,752</t>
+          <t>15,596</t>
         </is>
       </c>
       <c r="S7" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
-          <t>168,305</t>
+          <t>639</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>270</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>143,496</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>160,828</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
+      </c>
+      <c r="N8" s="7" t="inlineStr">
+        <is>
+          <t>53,046</t>
+        </is>
+      </c>
+      <c r="P8" s="6" t="inlineStr">
+        <is>
+          <t>JUN 2022</t>
+        </is>
+      </c>
+      <c r="Q8" s="7" t="inlineStr">
+        <is>
+          <t>9,669</t>
+        </is>
+      </c>
+      <c r="S8" s="6" t="inlineStr">
+        <is>
           <t>APR 2022</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>43,359</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>SEP 2022</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
-        </is>
-      </c>
-      <c r="K8" s="7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="T8" s="7" t="inlineStr">
+        <is>
+          <t>161,745</t>
+        </is>
+      </c>
+      <c r="V8" s="6" t="inlineStr">
         <is>
           <t>JUL 2022</t>
         </is>
       </c>
-      <c r="N8" s="7" t="inlineStr">
-        <is>
-          <t>28,396</t>
-        </is>
-      </c>
-      <c r="P8" s="6" t="inlineStr">
-        <is>
-          <t>APR 2022</t>
-        </is>
-      </c>
-      <c r="Q8" s="7" t="inlineStr">
-        <is>
-          <t>13,323</t>
-        </is>
-      </c>
-      <c r="S8" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="T8" s="7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="V8" s="6" t="inlineStr">
-        <is>
-          <t>MAY 2022</t>
-        </is>
-      </c>
       <c r="W8" s="7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1110,17 +1110,17 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>21,619</t>
+          <t>13,293</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40,226</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>513,549</t>
+          <t>760,914</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>1,428,084</t>
+          <t>1,757,647</t>
         </is>
       </c>
       <c r="M12" s="4" t="inlineStr">
@@ -1150,27 +1150,27 @@
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>42,116</t>
+          <t>43,499</t>
         </is>
       </c>
       <c r="P12" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>3,329</t>
         </is>
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>FEB 2022</t>
         </is>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>170</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="W12" s="5" t="n">
-        <v>8719</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="13">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>50,467</t>
+          <t>71,192</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>1,851</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>383,212</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
@@ -1230,27 +1230,27 @@
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>9,052</t>
+          <t>55,415</t>
         </is>
       </c>
       <c r="P13" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>5,042</t>
+          <t>2,989</t>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>52,868</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="W13" s="5" t="n">
-        <v>2846</v>
+        <v>13008</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>27,309</t>
+          <t>26,286</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="H14" s="7" t="inlineStr">
         <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>SEP 2022</t>
+        </is>
+      </c>
+      <c r="K14" s="7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
-        </is>
-      </c>
-      <c r="K14" s="7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="M14" s="6" t="inlineStr">
         <is>
           <t>JUL 2022</t>
@@ -1310,27 +1310,27 @@
       </c>
       <c r="N14" s="7" t="inlineStr">
         <is>
-          <t>9,109</t>
+          <t>16,444</t>
         </is>
       </c>
       <c r="P14" s="6" t="inlineStr">
         <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="Q14" s="7" t="inlineStr">
+        <is>
+          <t>1,671</t>
+        </is>
+      </c>
+      <c r="S14" s="6" t="inlineStr">
+        <is>
           <t>APR 2022</t>
         </is>
       </c>
-      <c r="Q14" s="7" t="inlineStr">
-        <is>
-          <t>1,665</t>
-        </is>
-      </c>
-      <c r="S14" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
-          <t>46,323</t>
+          <t>89</t>
         </is>
       </c>
       <c r="V14" s="6" t="inlineStr">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="W14" s="7" t="n">
-        <v>1377</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1"/>
@@ -1462,22 +1462,22 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>76,637</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>46,377</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>158,894</t>
+          <t>232,775</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -1497,27 +1497,27 @@
       </c>
       <c r="N18" s="5" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>494</t>
         </is>
       </c>
       <c r="P18" s="4" t="inlineStr">
         <is>
+          <t>APR 2022</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>17,620</t>
+        </is>
+      </c>
+      <c r="S18" s="4" t="inlineStr">
+        <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>12,432</t>
-        </is>
-      </c>
-      <c r="S18" s="4" t="inlineStr">
-        <is>
-          <t>JAN 2022</t>
-        </is>
-      </c>
       <c r="T18" s="5" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -1526,28 +1526,28 @@
         </is>
       </c>
       <c r="W18" s="5" t="n">
-        <v>7716</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>51,351</t>
+          <t>75,584</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>701</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
@@ -1567,27 +1567,27 @@
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>433</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
         <is>
-          <t>APR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>6,628</t>
+          <t>143</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="W19" s="5" t="n">
-        <v>3255</v>
+        <v>16432</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>68,537</t>
+          <t>1,233</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>24,133</t>
+          <t>36,348</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H20" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1637,17 +1637,17 @@
       </c>
       <c r="N20" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>32</t>
         </is>
       </c>
       <c r="P20" s="6" t="inlineStr">
         <is>
-          <t>MAY 2022</t>
+          <t>JUN 2022</t>
         </is>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>9,502</t>
         </is>
       </c>
       <c r="S20" s="6" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>18,494</t>
+          <t>24,938</t>
         </is>
       </c>
       <c r="V20" s="6" t="inlineStr">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="W20" s="7" t="n">
-        <v>1136</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" thickBot="1"/>
@@ -1773,22 +1773,22 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71,676</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>46,377</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -1798,57 +1798,57 @@
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>222,614</t>
+          <t>205,738</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="N24" s="5" t="inlineStr">
         <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="S24" s="4" t="inlineStr">
+        <is>
+          <t>FEB 2022</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S24" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="T24" s="5" t="inlineStr">
-        <is>
-          <t>1,225</t>
-        </is>
-      </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
           <t>Mar22</t>
         </is>
       </c>
       <c r="W24" s="5" t="n">
-        <v>19027</v>
+        <v>23948</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>51,351</t>
+          <t>75,584</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -1858,27 +1858,27 @@
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>346</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="N25" s="5" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>713</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>JUN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T25" s="5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2,690</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -1887,28 +1887,28 @@
         </is>
       </c>
       <c r="W25" s="5" t="n">
-        <v>6927</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>59,070</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>24,133</t>
+          <t>36,348</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
@@ -1923,17 +1923,17 @@
       </c>
       <c r="M26" s="6" t="inlineStr">
         <is>
-          <t>MAY 2022</t>
+          <t>JUL 2022</t>
         </is>
       </c>
       <c r="N26" s="7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S26" s="6" t="inlineStr">
         <is>
-          <t>SEP 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="T26" s="7" t="inlineStr">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="W26" s="7" t="n">
-        <v>5315</v>
+        <v>17773</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" thickBot="1"/>
@@ -2043,37 +2043,37 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>15,411</t>
+          <t>18,559</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>73,219</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>107,148</t>
+        </is>
+      </c>
+      <c r="S30" s="4" t="inlineStr">
+        <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>99,069</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t>JAN 2022</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>3,434</t>
-        </is>
-      </c>
-      <c r="S30" s="4" t="inlineStr">
-        <is>
-          <t>JAN 2022</t>
-        </is>
-      </c>
       <c r="T30" s="5" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>647</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="W30" s="5" t="n">
-        <v>9452</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2093,37 +2093,37 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>52,865</t>
+          <t>98,020</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="N31" s="5" t="inlineStr">
         <is>
-          <t>90,234</t>
+          <t>93,752</t>
         </is>
       </c>
       <c r="S31" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T31" s="5" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>52,252</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="W31" s="5" t="n">
-        <v>3016</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -2148,32 +2148,32 @@
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
+          <t>MAY 2022</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>39,040</t>
+        </is>
+      </c>
+      <c r="M32" s="6" t="inlineStr">
+        <is>
+          <t>JUL 2022</t>
+        </is>
+      </c>
+      <c r="N32" s="7" t="inlineStr">
+        <is>
+          <t>36,939</t>
+        </is>
+      </c>
+      <c r="S32" s="6" t="inlineStr">
+        <is>
           <t>APR 2022</t>
         </is>
       </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>33,114</t>
-        </is>
-      </c>
-      <c r="M32" s="6" t="inlineStr">
-        <is>
-          <t>MAY 2022</t>
-        </is>
-      </c>
-      <c r="N32" s="7" t="inlineStr">
-        <is>
-          <t>23,632</t>
-        </is>
-      </c>
-      <c r="S32" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
-          <t>38,420</t>
+          <t>194</t>
         </is>
       </c>
       <c r="V32" s="6" t="inlineStr">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="W32" s="7" t="n">
-        <v>2208</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1"/>
@@ -2241,91 +2241,91 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65,550</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="N36" s="5" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>33,029</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Jan22</t>
+          <t>Mar22</t>
         </is>
       </c>
       <c r="W36" s="5" t="n">
-        <v>5</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="N37" s="5" t="inlineStr">
         <is>
-          <t>34,226</t>
+          <t>48,344</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Mar22</t>
+          <t>May22</t>
         </is>
       </c>
       <c r="W37" s="5" t="n">
-        <v>315</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="B38" s="7" t="inlineStr">
         <is>
-          <t>50,466</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M38" s="6" t="inlineStr">
         <is>
-          <t>MAY 2022</t>
+          <t>JUL 2022</t>
         </is>
       </c>
       <c r="N38" s="7" t="inlineStr">
         <is>
-          <t>13,249</t>
+          <t>14,374</t>
         </is>
       </c>
       <c r="V38" s="6" t="inlineStr">
         <is>
-          <t>May22</t>
+          <t>Jul22</t>
         </is>
       </c>
       <c r="W38" s="7" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1"/>
@@ -2368,66 +2368,66 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>84,984</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="N42" s="5" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>35,672</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="N43" s="5" t="inlineStr">
         <is>
-          <t>58,814</t>
+          <t>41,310</t>
         </is>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="B44" s="7" t="inlineStr">
         <is>
-          <t>79,656</t>
+          <t>153</t>
         </is>
       </c>
       <c r="M44" s="6" t="inlineStr">
         <is>
-          <t>MAY 2022</t>
+          <t>JUL 2022</t>
         </is>
       </c>
       <c r="N44" s="7" t="inlineStr">
         <is>
-          <t>20,266</t>
+          <t>11,901</t>
         </is>
       </c>
     </row>
@@ -2455,19 +2455,19 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>JAN 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32,376</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="B49" s="5" t="inlineStr">
@@ -2479,12 +2479,12 @@
     <row r="50" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>MAY 2022</t>
         </is>
       </c>
       <c r="B50" s="7" t="inlineStr">
         <is>
-          <t>31,843</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>7453</v>
+        <v>18085</v>
       </c>
     </row>
     <row r="55">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B55" s="5" t="n">
-        <v>19</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" thickBot="1">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="B56" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -731,7 +731,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>131,424</t>
+          <t>292,834</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>150,382</t>
+          <t>40,745</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>1,824,590</t>
+          <t>2,589,159</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>370,383</t>
+          <t>854,219</t>
         </is>
       </c>
       <c r="M6" s="4" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
-          <t>154,047</t>
+          <t>168,824</t>
         </is>
       </c>
       <c r="P6" s="4" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>1,829</t>
+          <t>710</t>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>173</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>268</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>566,355</t>
+          <t>789,041</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>4,718</t>
+          <t>12,665</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>62,177</t>
+          <t>445,809</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>138,413</t>
+          <t>192,520</t>
         </is>
       </c>
       <c r="P7" s="4" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>15,596</t>
+          <t>20,386</t>
         </is>
       </c>
       <c r="S7" s="4" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>2,186</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>291</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>160,828</t>
+          <t>214,374</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>213</t>
         </is>
       </c>
       <c r="J8" s="6" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="N8" s="7" t="inlineStr">
         <is>
-          <t>53,046</t>
+          <t>78,558</t>
         </is>
       </c>
       <c r="P8" s="6" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>9,669</t>
+          <t>12,173</t>
         </is>
       </c>
       <c r="S8" s="6" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
-          <t>161,745</t>
+          <t>334,589</t>
         </is>
       </c>
       <c r="V8" s="6" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="W8" s="7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>13,293</t>
+          <t>34,192</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>40,226</t>
+          <t>39,560</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>760,914</t>
+          <t>1,114,720</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>1,757,647</t>
+          <t>4,427,866</t>
         </is>
       </c>
       <c r="M12" s="4" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>43,499</t>
+          <t>47,217</t>
         </is>
       </c>
       <c r="P12" s="4" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>3,329</t>
+          <t>4,453</t>
         </is>
       </c>
       <c r="S12" s="4" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>175</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="W12" s="5" t="n">
-        <v>5130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>71,192</t>
+          <t>97,387</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>1,851</t>
+          <t>3,567</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>383,212</t>
+          <t>2,284,958</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>55,415</t>
+          <t>101,329</t>
         </is>
       </c>
       <c r="P13" s="4" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>2,989</t>
+          <t>3,944</t>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
-          <t>52,868</t>
+          <t>96,222</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="W13" s="5" t="n">
-        <v>13008</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>26,286</t>
+          <t>33,247</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="H14" s="7" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J14" s="6" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="K14" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N14" s="7" t="inlineStr">
         <is>
-          <t>16,444</t>
+          <t>31,152</t>
         </is>
       </c>
       <c r="P14" s="6" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>1,671</t>
+          <t>1,997</t>
         </is>
       </c>
       <c r="S14" s="6" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>368</t>
         </is>
       </c>
       <c r="V14" s="6" t="inlineStr">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="W14" s="7" t="n">
-        <v>3064</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>76,637</t>
+          <t>168,139</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>46,377</t>
+          <t>42,637</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>232,775</t>
+          <t>450,328</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="N18" s="5" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>534</t>
         </is>
       </c>
       <c r="P18" s="4" t="inlineStr">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="Q18" s="5" t="inlineStr">
         <is>
-          <t>17,620</t>
+          <t>19,564</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T18" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="W18" s="5" t="n">
-        <v>1284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>75,584</t>
+          <t>83,053</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>978</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>730</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>150</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22,334</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="W19" s="5" t="n">
-        <v>16432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>1,233</t>
+          <t>720</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>36,348</t>
+          <t>37,003</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H20" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="N20" s="7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>47</t>
         </is>
       </c>
       <c r="P20" s="6" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>9,502</t>
+          <t>13,360</t>
         </is>
       </c>
       <c r="S20" s="6" t="inlineStr">
         <is>
-          <t>APR 2022</t>
+          <t>JUL 2022</t>
         </is>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
-          <t>24,938</t>
+          <t>1,517</t>
         </is>
       </c>
       <c r="V20" s="6" t="inlineStr">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="W20" s="7" t="n">
-        <v>5617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" thickBot="1"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>71,676</t>
+          <t>149,772</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>46,377</t>
+          <t>42,637</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>205,738</t>
+          <t>296,786</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
@@ -1808,17 +1808,17 @@
       </c>
       <c r="N24" s="5" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>1,086</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>FEB 2022</t>
+          <t>MAR 2022</t>
         </is>
       </c>
       <c r="T24" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,577</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="W24" s="5" t="n">
-        <v>23948</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="25">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>75,584</t>
+          <t>83,053</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>629</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
@@ -1868,17 +1868,17 @@
       </c>
       <c r="N25" s="5" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>847</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>APR 2022</t>
         </is>
       </c>
       <c r="T25" s="5" t="inlineStr">
         <is>
-          <t>2,690</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="W25" s="5" t="n">
-        <v>45187</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>36,348</t>
+          <t>37,003</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="H26" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M26" s="6" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="N26" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="S26" s="6" t="inlineStr">
         <is>
-          <t>APR 2022</t>
+          <t>JUN 2022</t>
         </is>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,366</t>
         </is>
       </c>
       <c r="V26" s="6" t="inlineStr">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="W26" s="7" t="n">
-        <v>17773</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" thickBot="1"/>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>18,559</t>
+          <t>47,263</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>73,219</t>
+          <t>42,641</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
-          <t>107,148</t>
+          <t>117,091</t>
         </is>
       </c>
       <c r="S30" s="4" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="T30" s="5" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>818</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="W30" s="5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>98,020</t>
+          <t>141,915</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="N31" s="5" t="inlineStr">
         <is>
-          <t>93,752</t>
+          <t>154,679</t>
         </is>
       </c>
       <c r="S31" s="4" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="T31" s="5" t="inlineStr">
         <is>
-          <t>52,252</t>
+          <t>89,063</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="W31" s="5" t="n">
-        <v>18025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t>39,040</t>
+          <t>54,411</t>
         </is>
       </c>
       <c r="M32" s="6" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="N32" s="7" t="inlineStr">
         <is>
-          <t>36,939</t>
+          <t>55,511</t>
         </is>
       </c>
       <c r="S32" s="6" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1,428</t>
         </is>
       </c>
       <c r="V32" s="6" t="inlineStr">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="W32" s="7" t="n">
-        <v>7683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>65,550</t>
+          <t>106,540</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="N36" s="5" t="inlineStr">
         <is>
-          <t>33,029</t>
+          <t>38,304</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="W36" s="5" t="n">
-        <v>781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>67</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="N37" s="5" t="inlineStr">
         <is>
-          <t>48,344</t>
+          <t>83,018</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="W37" s="5" t="n">
-        <v>725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B38" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>87</t>
         </is>
       </c>
       <c r="M38" s="6" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="N38" s="7" t="inlineStr">
         <is>
-          <t>14,374</t>
+          <t>24,114</t>
         </is>
       </c>
       <c r="V38" s="6" t="inlineStr">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="W38" s="7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1"/>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>84,984</t>
+          <t>161,542</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="N42" s="5" t="inlineStr">
         <is>
-          <t>35,672</t>
+          <t>40,282</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>111</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="N43" s="5" t="inlineStr">
         <is>
-          <t>41,310</t>
+          <t>58,913</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B44" s="7" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>128</t>
         </is>
       </c>
       <c r="M44" s="6" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="N44" s="7" t="inlineStr">
         <is>
-          <t>11,901</t>
+          <t>19,313</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
-          <t>32,376</t>
+          <t>70,489</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>18085</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="55">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B55" s="5" t="n">
-        <v>166</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" thickBot="1">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="B56" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -969,7 +969,88 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" thickBot="1"/>
+    <row r="9" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -1185,39 +1266,39 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>APR 2022</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>71,192</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
-        <is>
-          <t>1,851</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>JUN 2022</t>
-        </is>
-      </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
           <t>383,212</t>
@@ -1225,32 +1306,32 @@
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
-          <t>MAY 2022</t>
+          <t>Monat:</t>
         </is>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>55,415</t>
+          <t>Total Volume:</t>
         </is>
       </c>
       <c r="P13" s="4" t="inlineStr">
         <is>
-          <t>APR 2022</t>
+          <t>Monat:</t>
         </is>
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>2,989</t>
+          <t>Total Volume:</t>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>MAR 2022</t>
+          <t>Monat:</t>
         </is>
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
-          <t>52,868</t>
+          <t>Total Volume:</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -1342,7 +1423,18 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" thickBot="1"/>
+    <row r="15" ht="15" customHeight="1" thickBot="1">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
@@ -1669,7 +1761,58 @@
         <v>5617</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" thickBot="1"/>
+    <row r="21" ht="15" customHeight="1" thickBot="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
@@ -1833,19 +1976,19 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
           <t>APR 2022</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>APR 2022</t>
-        </is>
-      </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
           <t>75,584</t>
@@ -1863,12 +2006,12 @@
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>MAY 2022</t>
+          <t>Monat:</t>
         </is>
       </c>
       <c r="N25" s="5" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>Total Volume:</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
@@ -1950,7 +2093,18 @@
         <v>17773</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" thickBot="1"/>
+    <row r="27" ht="15" customHeight="1" thickBot="1">
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
@@ -2185,7 +2339,28 @@
         <v>7683</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" thickBot="1"/>
+    <row r="33" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+    </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
@@ -2271,12 +2446,12 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>APR 2022</t>
+          <t>Monat:</t>
         </is>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Total Volume:</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
@@ -2301,7 +2476,7 @@
     <row r="38" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>MAY 2022</t>
+          <t>Mar22</t>
         </is>
       </c>
       <c r="B38" s="7" t="inlineStr">
@@ -2328,7 +2503,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1"/>
+    <row r="39" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jun22</t>
+        </is>
+      </c>
+    </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>

--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="W13" s="5" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="W14" s="7" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1"/>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="W24" s="5" t="n">
-        <v>1812</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="25">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="W25" s="5" t="n">
-        <v>2970</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="W26" s="7" t="n">
-        <v>760</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" thickBot="1"/>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>2408</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="55">
